--- a/Study 2 Materials/codebook-study2.xlsx
+++ b/Study 2 Materials/codebook-study2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\RESEARCH PROJECTS\conspiracy-belief-special-issue\Study 2 Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB58A8-BA9C-474E-87CA-9F872F3ABA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98067AEF-ED5E-4405-ABF8-3FF8FE2A2DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,18 +508,9 @@
     <t>Do you have children under 5 years old?</t>
   </si>
   <si>
-    <t>0: Not at all sure; 10: Completely sure</t>
-  </si>
-  <si>
     <t>1: Sangat ragu; 5: Sangat yakin</t>
   </si>
   <si>
-    <t>1: Not very sure; 5: Very sure</t>
-  </si>
-  <si>
-    <t>1: Strongly disagree; 5: Strongly Agree</t>
-  </si>
-  <si>
     <t>1: Sangat tidak setuju; 5: Sangat setuju</t>
   </si>
   <si>
@@ -530,6 +521,15 @@
   </si>
   <si>
     <t>1: SMP; 2: SMA; 3: Diploma (D1/D2/D3); 4: Sarjana (S1/SST); 5: Magister (S2); 6: Profesi/Spesialis; 7: Doktoral (S3)</t>
+  </si>
+  <si>
+    <t>0: Not at all sure; 10: Completely sure [0-5 is scored 2, 6-7 is scored 1, 8-10 is scored 0]</t>
+  </si>
+  <si>
+    <t>1: Strongly disagree; 5: Strongly Agree [1-2 is scored 0, 3 is scored 1, 4-5 is scored 2]</t>
+  </si>
+  <si>
+    <t>1: Not very sure; 5: Very sure [1-2 is scored 0, 3 is scored 1, 4-5 is scored 2]</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,25 +2133,25 @@
       <c r="A27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2159,25 +2159,25 @@
       <c r="A28" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2185,104 +2185,104 @@
       <c r="A29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>154</v>
+      <c r="G30" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>153</v>
+      <c r="G32" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2405,10 +2405,10 @@
         <v>21</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
